--- a/data/output/results/df_class.xlsx
+++ b/data/output/results/df_class.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,9 +587,13 @@
       <c r="N2" t="n">
         <v>96.05</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>1</v>
+      <c r="O2" t="n">
+        <v>431.9810475312901</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -664,9 +668,13 @@
       <c r="N3" t="n">
         <v>53.45</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>0</v>
+      <c r="O3" t="n">
+        <v>528.0462894185491</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -741,11 +749,1637 @@
       <c r="N4" t="n">
         <v>19.7</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="O4" t="n">
+        <v>818.0553835137255</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5731-DDJUB</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Two year</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Bank transfer (automatic)</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>818.0553835137</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Electronic check</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>431.98</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5731-DDJUB</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Two year</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Bank transfer (automatic)</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>528.0462894185</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5247-VRIOW</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Mailed check</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="O8" t="n">
+        <v>528.0462894185491</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5247-VRIOW</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Mailed check</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="O9" t="n">
+        <v>431.9810475312901</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5731-DDJUB</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Two year</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Bank transfer (automatic)</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>431.9810475312901</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9695-TERGH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Electronic check</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="O11" t="n">
+        <v>818.0553835137255</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9695-TERGH</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Electronic check</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>528.0462894185491</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5247-VRIOW</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Mailed check</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="O13" t="n">
+        <v>818.0553835137255</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>9695-TERGH</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Electronic check</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="O14" t="n">
+        <v>818.0553835137255</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5247-VRIOW</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Mailed check</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="O15" t="n">
+        <v>818.0553835137255</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5731-DDJUB</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Two year</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Bank transfer (automatic)</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>431.9810475312901</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>9695-TERGH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Electronic check</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="O17" t="n">
+        <v>431.98</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>9695-TERGH</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Electronic check</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="O18" t="n">
+        <v>431.98</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5247-VRIOW</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Mailed check</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="O19" t="n">
+        <v>818.0553835137255</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5731-DDJUB</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Two year</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Bank transfer (automatic)</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>818.0553835137255</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>9695-TERGH</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Electronic check</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>431.9810475312901</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5247-VRIOW</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Mailed check</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="O22" t="n">
+        <v>528.0462894185491</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5731-DDJUB</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>No internet service</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Two year</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Bank transfer (automatic)</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>818.0553835137255</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>9695-TERGH</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Electronic check</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="O24" t="n">
+        <v>431.98</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2024-07</t>
         </is>

--- a/data/output/results/df_class.xlsx
+++ b/data/output/results/df_class.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,6 +844,89 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9695-TERGH</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Month-to-month</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Electronic check</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>431.98</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Betha</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
